--- a/data2/ChatLogs.xlsx
+++ b/data2/ChatLogs.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -2674,6 +2674,126 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>670c2196-a22b-406d-9d45-325afcaf5c7d</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>10:17:13</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>**Project Proposal: Customer Churn Prediction Model**
+---
+### 1. Executive Summary
+**Problem Statement**: In a competitive marketplace, your business faces significant challenges in identifying customers likely to disengage, leading to lost revenue and decreased market share. Without a proactive strategy, valuable customers are at risk, impacting overall growth.
+**Proposed Solution**: We propose the development of a machine learning model specifically designed to predict customer churn probability. This AI-driven model will leverage historical customer behavior and demographic data to assign risk scores for each customer, enabling your teams to intervene with targeted retention strategies before customer attrition occurs.
+**Expected Business Impact**: By implementing our churn prediction model, we anticipate a reduction in customer churn by 10-15%, resulting in a significant increase in customer lifetime value and substantial revenue preservation over time.
+---
+### 2. Introduction and Background
+In today’s dynamic business landscape, retaining existing customers is often more cost-effective than acquiring new ones. Your current reliance on manual or reactive methods for identifying at-risk customers results in missed opportunities for timely intervention. Our project focuses on developing a predictive model that employs a data-driven approach to pre-emptively address customer churn, ultimately promoting better customer retention and loyalty.
+---
+### 3. Project Scope and Deliverables
+**Detailed Scope**:
+- **Data Collection &amp; Preparation**: Collaborate with your team to gather and sanitize historical customer data, including transaction histories, customer service interactions, and demographic identifiers.
+- **Feature Engineering**: Develop innovative variables from existing data, including metrics such as “days since last purchase” and “average monthly spend,” to enhance model accuracy.
+- **Model Training &amp; Validation**: Train multiple machine learning algorithms (e.g., Logistic Regression, Gradient Boosting), selecting the most optimal model tailored to your business requirements and validating it to ensure its effectiveness.
+- **API Development**: Deploy the final model as a secure API endpoint to facilitate real-time queries of churn risk scores from your CRM or marketing systems.
+- **Dashboard**: Deliver an intuitive dashboard for visualizing churn trends and monitoring model performance over time.
+**Non-Deliverables**: The project scope does not extend to implementing specific marketing campaigns or customer service interventions based on outputs from the model, nor does it entail real-time data ingestion.
+---
+### 4. Technical Approach and Methodology
+**AI/ML Technique**: We will utilize supervised machine learning methods with classification algorithms to determine the binary outcome (churn vs. no churn). Options such as XGBoost and Random Forest will be explored for their strong predictive capabilities and interpretive strengths.
+**Development Lifecycle**: The work will be conducted in an agile framework, encompassing three phases:
+- **Data Ingestion &amp; Exploration (4 weeks)**: Connect and clean data sources while performing exploratory data analysis.
+- **Model Development &amp; Training (6 weeks)**: Engineer features, develop models, conduct tuning, and select the best-performing algorithm.
+- **Deployment &amp; Integration (4 weeks)**: Package the model into an API, configure the production environment, and assist in integration testing with your existing systems.
+**Technology Stack**: Implementation will include Python, Pandas, Scikit-learn, XGBoost, Flask/FastAPI, Docker, and deployment on a cloud platform such as AWS or Azure.
+**Model Performance Metrics**: Evaluation will involve metrics like Precision, Recall, and F1-score, ensuring that the model accurately identifies at-risk customers while minimizing false positives.
+---
+### 5. Project Timeline and Milestones
+**Timeline**: Approximately 3-4 months.
+**Key Milestones**:
+- **Month 1**: Data Access and Initial Analysis Completed.
+- **Month 2**: Completion of Feature Engineering and Model Training.
+- **Month 3**: Carry out Model Validation and API Development.
+- **Month 4**: Finalize Integration and Documentation.
+---
+### 6. Team and Resources
+**Team Roles**: The project will be led by a team of 2 Data Scientists/ML Engineers.
+**Man-days**: The estimated effort will range between 180-240 man-days.
+**Client Responsibilities**: Your team will need to provide access to historical customer data, appoint a key point of contact for streamlined collaboration, and allocate internal resources for integration purposes.
+---
+### 7. Pricing and Payment Schedule
+**Total Project Cost**: Estimated between $50,000 - $80,000.
+**Cost Breakdown**:
+- **Data Scientist Time**: 60%
+- **Infrastructure/Software**: 15%
+- **Project Management &amp; Overhead**: 25%
+**Payment Terms**: 
+- 30% upfront,
+- 30% after successful model validation,
+- 40% upon deployment completion.
+---
+### 8. Risk Assessment and Mitigation
+**Risk**: Potential issues may arise from poor data quality or lack of sufficient historical records.
+**Mitigation**: We will initiate the project with a thorough data quality assessment. Should data integrity be compromised, we will collaborate with your team to explore additional data source options or adjust the project scope accordingly.
+---
+We believe that this project will not only enhance your customer retention rates but also contribute positively to your overall business growth. We look forward to partnering with you on this transformative journey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>e1e43f3a22f15bce</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-08-30</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>10:17:28</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today? If you have any questions or need help with something specific, please let me know!</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
